--- a/Test/Practice_Condition.xlsx
+++ b/Test/Practice_Condition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85f70a34574754f4/Documents/GitHub/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Psychology\Documents\ABExperiment\ABExperiment\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{B0CDDDEA-6117-47CA-AF3C-8301F26A671F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{757EF7F8-9620-427E-AE7A-BCF9F7A7DFA0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0791C54-C681-48C8-A3F5-E7B3E9DB21E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1050" yWindow="240" windowWidth="12885" windowHeight="8430" xr2:uid="{E98C0AE9-C196-4DBD-AC77-E8DDD54EB8F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E98C0AE9-C196-4DBD-AC77-E8DDD54EB8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:AW13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
